--- a/article/汪圣灵毕业设计算法选择.xlsx
+++ b/article/汪圣灵毕业设计算法选择.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE726AF-2072-4C54-9BAC-31EC836091D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFA28C0-F1ED-4F7D-9505-FEEC6946EDB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,54 +25,111 @@
     <t>Chaco</t>
   </si>
   <si>
-    <t>B. Hendrickson and R. Leland, “The Chaco User’s Guide: Version 2.0,” Technical Report SAND94–2692, Sandia Nat’l Laboratory, 1994</t>
-  </si>
-  <si>
-    <t>MPIPP</t>
-  </si>
-  <si>
-    <t>H. Chen, W. Chen, J. Huang, B. Robert, and H. Kuhn, “MPIPP: An Automatic Profile-Guided Parallel Process Placement Toolset for SMP Clusters and Multiclusters,” Proc. 20th Ann. Int’l Conf. Supercomputing (ICS), pp. 353-360, 2006.</t>
-  </si>
-  <si>
-    <t>Treematch</t>
-  </si>
-  <si>
-    <t>Process Placement in Multicore Clusters: Algorithmic Issues and Practical Techniques</t>
-  </si>
-  <si>
-    <t>Scotch</t>
-  </si>
-  <si>
-    <t>F. Pellegrini, “Static Mapping by Dual Recursive Bipartitioning of
-Process and Architecture Graphs,” Proc. Scalable High-Performance
-Computing Conf. (SHPCC ’94), pp. 486-493, May 1994</t>
-  </si>
-  <si>
-    <t>PaMETS</t>
-  </si>
-  <si>
-    <t>G. Karypis and V. Kumar, “METIS - Unstructured Graph Partitioning and Sparse Matrix Ordering System, Version 2.0,” technical report 1995.</t>
-  </si>
-  <si>
-    <t>Automatic Topology Mapping of Diverse Large-scale Parallel Applications</t>
-  </si>
-  <si>
-    <t>TopoLB</t>
-  </si>
-  <si>
-    <t>Fast Approximate
-Quadratic</t>
-  </si>
-  <si>
-    <t>J. T. Vogelstein, J. M. Conroy, V. Lyzinski, L. J. Podrazik, S. G. Kratzer, E. T. Harley,
-D. E. Fishkind, R. J. Vogelstein, and C. E. Priebe. Fast Approximate Quadratic
-Programming for Graph Matching. PLoS ONE, 10(4), 2015.</t>
-  </si>
-  <si>
-    <t>Tarun Agarwal, Amit Sharma, and Laxmikant V. Kalé. Topology-aware Task
-Mapping for Reducing Communication Contention on Large Parallel Machines.
+    <r>
+      <t>Tarun Agarwal, Amit Sharma, and Laxmikant V. Kalé.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Topology-aware Task
+Mapping for Reducing Communication Contention on Large Parallel Machines.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 In Proceedings of the 20th International Conference on Parallel and Distributed
 Processing, IPDPS’06, pages 145–145, Washington, DC. IEEE Computer Society</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H. Chen, W. Chen, J. Huang, B. Robert, and H. Kuhn, “MPIPP: An Automatic Profile-Guided Parallel Process Placement Toolset for SMP Clusters and Multiclusters,” Proc. 20th Ann. Int’l Conf. Supercomputing (ICS), pp. 353-360, 2006.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automatic Topology Mapping of Diverse Large-scale Parallel Applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B. Hendrickson and R. Leland, “The Chaco User’s Guide: Version 2.0,” Technical Report SAND94–2692, Sandia Nat’l Laboratory, 1994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process Placement in Multicore Clusters: Algorithmic Issues and Practical Techniques</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F. Pellegrini, “Static Mapping by Dual Recursive Bipartitioning of Process and Architecture Graphs,” Proc. Scalable High-Performance Computing Conf. (SHPCC ’94), pp. 486-493, May 1994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G. Karypis and V. Kumar, “METIS - Unstructured Graph Partitioning and Sparse Matrix Ordering System, Version 2.0,” technical report 1995.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPIPP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treematch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scotch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaMETS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TopoLB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast Approximate Quadratic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J. T. Vogelstein, J. M. Conroy, V. Lyzinski, L. J. Podrazik, S. G. Kratzer, E. T. Harley,
+D. E. Fishkind, R. J. Vogelstein, and C. E. Priebe.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Fast Approximate Quadratic Programming for Graph Matching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. PLoS ONE, 10(4), 2015.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -80,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +157,14 @@
       <color rgb="FF006100"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -425,12 +490,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="135.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -438,20 +504,20 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -459,39 +525,39 @@
     </row>
     <row r="4" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" ht="186.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/article/汪圣灵毕业设计算法选择.xlsx
+++ b/article/汪圣灵毕业设计算法选择.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFA28C0-F1ED-4F7D-9505-FEEC6946EDB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BA72D3-E5F6-42E1-BA14-EA711F1B03F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
